--- a/natmiOut/OldD2/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F13a1</t>
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H2">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I2">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J2">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N2">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O2">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P2">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q2">
-        <v>0.7441856949818709</v>
+        <v>1.48810610985</v>
       </c>
       <c r="R2">
-        <v>0.7441856949818709</v>
+        <v>5.952424439400001</v>
       </c>
       <c r="S2">
-        <v>0.0001067991470665742</v>
+        <v>0.0001702729814766847</v>
       </c>
       <c r="T2">
-        <v>0.0001067991470665742</v>
+        <v>8.205062764258999E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H3">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I3">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J3">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N3">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P3">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q3">
-        <v>0.2994108265551316</v>
+        <v>0.6512117864625</v>
       </c>
       <c r="R3">
-        <v>0.2994108265551316</v>
+        <v>3.907270718775</v>
       </c>
       <c r="S3">
-        <v>4.296887337960055E-05</v>
+        <v>7.451335070783694E-05</v>
       </c>
       <c r="T3">
-        <v>4.296887337960055E-05</v>
+        <v>5.385940100691444E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H4">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I4">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J4">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N4">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O4">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P4">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q4">
-        <v>0.4697699342429432</v>
+        <v>1.482344965325</v>
       </c>
       <c r="R4">
-        <v>0.4697699342429432</v>
+        <v>8.894069791949999</v>
       </c>
       <c r="S4">
-        <v>6.741735111676555E-05</v>
+        <v>0.0001696137762973653</v>
       </c>
       <c r="T4">
-        <v>6.741735111676555E-05</v>
+        <v>0.000122599457776579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H5">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I5">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J5">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N5">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O5">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P5">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q5">
-        <v>1.352518729680006</v>
+        <v>2.7233861688675</v>
       </c>
       <c r="R5">
-        <v>1.352518729680006</v>
+        <v>16.340317013205</v>
       </c>
       <c r="S5">
-        <v>0.0001941018857194103</v>
+        <v>0.0003116169469475383</v>
       </c>
       <c r="T5">
-        <v>0.0001941018857194103</v>
+        <v>0.0002252415432504854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H6">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I6">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J6">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N6">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O6">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P6">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q6">
-        <v>0.3254074388476351</v>
+        <v>0.682925876675</v>
       </c>
       <c r="R6">
-        <v>0.3254074388476351</v>
+        <v>4.09755526005</v>
       </c>
       <c r="S6">
-        <v>4.669968416806567E-05</v>
+        <v>7.814215960765877E-05</v>
       </c>
       <c r="T6">
-        <v>4.669968416806567E-05</v>
+        <v>5.648236013915499E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H7">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I7">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J7">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N7">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O7">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P7">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q7">
-        <v>0.08504379061394952</v>
+        <v>0.18713311483875</v>
       </c>
       <c r="R7">
-        <v>0.08504379061394952</v>
+        <v>0.7485324593550001</v>
       </c>
       <c r="S7">
-        <v>1.22047552944422E-05</v>
+        <v>2.14122589684311E-05</v>
       </c>
       <c r="T7">
-        <v>1.22047552944422E-05</v>
+        <v>1.031807437897021E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H8">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I8">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J8">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N8">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O8">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P8">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q8">
-        <v>989.3641480870041</v>
+        <v>0.8267487271533334</v>
       </c>
       <c r="R8">
-        <v>989.3641480870041</v>
+        <v>4.96049236292</v>
       </c>
       <c r="S8">
-        <v>0.1419850554323191</v>
+        <v>9.45987451920629E-05</v>
       </c>
       <c r="T8">
-        <v>0.1419850554323191</v>
+        <v>6.837743442819524E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H9">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I9">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J9">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N9">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P9">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q9">
-        <v>398.054328832483</v>
+        <v>0.361794439255</v>
       </c>
       <c r="R9">
-        <v>398.054328832483</v>
+        <v>3.256149953295</v>
       </c>
       <c r="S9">
-        <v>0.05712534262903626</v>
+        <v>4.139746315526097E-05</v>
       </c>
       <c r="T9">
-        <v>0.05712534262903626</v>
+        <v>4.488408884249109E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H10">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I10">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J10">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N10">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O10">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P10">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q10">
-        <v>624.5397270105815</v>
+        <v>0.8235480018344444</v>
       </c>
       <c r="R10">
-        <v>624.5397270105815</v>
+        <v>7.41193201651</v>
       </c>
       <c r="S10">
-        <v>0.08962858410701656</v>
+        <v>9.423250985485965E-05</v>
       </c>
       <c r="T10">
-        <v>0.08962858410701656</v>
+        <v>0.0001021690708030482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H11">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I11">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J11">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N11">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O11">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P11">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q11">
-        <v>1798.117794771874</v>
+        <v>1.513034610741</v>
       </c>
       <c r="R11">
-        <v>1798.117794771874</v>
+        <v>13.617311496669</v>
       </c>
       <c r="S11">
-        <v>0.2580504410415248</v>
+        <v>0.0001731253655522279</v>
       </c>
       <c r="T11">
-        <v>0.2580504410415248</v>
+        <v>0.0001877065331078729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H12">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I12">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J12">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N12">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O12">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P12">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q12">
-        <v>432.6157512669029</v>
+        <v>0.3794138707877778</v>
       </c>
       <c r="R12">
-        <v>432.6157512669029</v>
+        <v>3.41472483709</v>
       </c>
       <c r="S12">
-        <v>0.06208530149722375</v>
+        <v>4.34135244556966E-05</v>
       </c>
       <c r="T12">
-        <v>0.06208530149722375</v>
+        <v>4.706994922193709E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H13">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I13">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J13">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N13">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O13">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P13">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q13">
-        <v>113.0622074815741</v>
+        <v>0.1039657477898333</v>
       </c>
       <c r="R13">
-        <v>113.0622074815741</v>
+        <v>0.6237944867390001</v>
       </c>
       <c r="S13">
-        <v>0.01622571813180354</v>
+        <v>1.189603196334726E-05</v>
       </c>
       <c r="T13">
-        <v>0.01622571813180354</v>
+        <v>8.598635678285302E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H14">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I14">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J14">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N14">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O14">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P14">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q14">
-        <v>592.6199452026823</v>
+        <v>1169.945067254587</v>
       </c>
       <c r="R14">
-        <v>592.6199452026823</v>
+        <v>7019.670403527521</v>
       </c>
       <c r="S14">
-        <v>0.08504773084065832</v>
+        <v>0.1338681653457219</v>
       </c>
       <c r="T14">
-        <v>0.08504773084065832</v>
+        <v>0.09676197796667926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H15">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I15">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J15">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N15">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P15">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q15">
-        <v>238.4308497498255</v>
+        <v>511.98097519178</v>
       </c>
       <c r="R15">
-        <v>238.4308497498255</v>
+        <v>4607.82877672602</v>
       </c>
       <c r="S15">
-        <v>0.03421755021542063</v>
+        <v>0.05858219822377599</v>
       </c>
       <c r="T15">
-        <v>0.03421755021542063</v>
+        <v>0.06351617681988875</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H16">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I16">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J16">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N16">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O16">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P16">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q16">
-        <v>374.093501885578</v>
+        <v>1165.415670745729</v>
       </c>
       <c r="R16">
-        <v>374.093501885578</v>
+        <v>10488.74103671156</v>
       </c>
       <c r="S16">
-        <v>0.05368669028971444</v>
+        <v>0.1333498999863175</v>
       </c>
       <c r="T16">
-        <v>0.05368669028971444</v>
+        <v>0.1445810516377629</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H17">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I17">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J17">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N17">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O17">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P17">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q17">
-        <v>1077.055875802736</v>
+        <v>2141.118965513196</v>
       </c>
       <c r="R17">
-        <v>1077.055875802736</v>
+        <v>19270.07068961876</v>
       </c>
       <c r="S17">
-        <v>0.1545698199447068</v>
+        <v>0.2449924152189358</v>
       </c>
       <c r="T17">
-        <v>0.1545698199447068</v>
+        <v>0.2656264537076043</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H18">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I18">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J18">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N18">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O18">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P18">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q18">
-        <v>259.1328211208474</v>
+        <v>536.9145086011156</v>
       </c>
       <c r="R18">
-        <v>259.1328211208474</v>
+        <v>4832.23057741004</v>
       </c>
       <c r="S18">
-        <v>0.03718851955805982</v>
+        <v>0.06143515813319001</v>
       </c>
       <c r="T18">
-        <v>0.03718851955805982</v>
+        <v>0.06660942206436046</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>177.1833293333333</v>
+      </c>
+      <c r="H19">
+        <v>531.549988</v>
+      </c>
+      <c r="I19">
+        <v>0.6490620979818499</v>
+      </c>
+      <c r="J19">
+        <v>0.6492631461636483</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8303465000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.660693</v>
+      </c>
+      <c r="O19">
+        <v>0.02593628733868785</v>
+      </c>
+      <c r="P19">
+        <v>0.01874134399780904</v>
+      </c>
+      <c r="Q19">
+        <v>147.1235573702807</v>
+      </c>
+      <c r="R19">
+        <v>882.7413442216841</v>
+      </c>
+      <c r="S19">
+        <v>0.01683426107390883</v>
+      </c>
+      <c r="T19">
+        <v>0.0121680639673527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H20">
+        <v>284.79747</v>
+      </c>
+      <c r="I20">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J20">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.603020000000001</v>
+      </c>
+      <c r="N20">
+        <v>13.20604</v>
+      </c>
+      <c r="O20">
+        <v>0.2062486251499858</v>
+      </c>
+      <c r="P20">
+        <v>0.1490335290681818</v>
+      </c>
+      <c r="Q20">
+        <v>626.8411301198</v>
+      </c>
+      <c r="R20">
+        <v>3761.0467807188</v>
+      </c>
+      <c r="S20">
+        <v>0.07172479666014642</v>
+      </c>
+      <c r="T20">
+        <v>0.05184379106242402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H21">
+        <v>284.79747</v>
+      </c>
+      <c r="I21">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J21">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.889555</v>
+      </c>
+      <c r="N21">
+        <v>8.668665000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.09025669255057035</v>
+      </c>
+      <c r="P21">
+        <v>0.0978280951185844</v>
+      </c>
+      <c r="Q21">
+        <v>274.31265114195</v>
+      </c>
+      <c r="R21">
+        <v>2468.81386027755</v>
+      </c>
+      <c r="S21">
+        <v>0.03138756884172839</v>
+      </c>
+      <c r="T21">
+        <v>0.03403112947182864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H22">
+        <v>284.79747</v>
+      </c>
+      <c r="I22">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J22">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.577456666666667</v>
+      </c>
+      <c r="N22">
+        <v>19.73237</v>
+      </c>
+      <c r="O22">
+        <v>0.2054501416751135</v>
+      </c>
+      <c r="P22">
+        <v>0.2226848273955795</v>
+      </c>
+      <c r="Q22">
+        <v>624.4143392337666</v>
+      </c>
+      <c r="R22">
+        <v>5619.7290531039</v>
+      </c>
+      <c r="S22">
+        <v>0.07144711691886305</v>
+      </c>
+      <c r="T22">
+        <v>0.0774646197835569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H23">
+        <v>284.79747</v>
+      </c>
+      <c r="I23">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J23">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.084201</v>
+      </c>
+      <c r="N23">
+        <v>36.252603</v>
+      </c>
+      <c r="O23">
+        <v>0.377456049245055</v>
+      </c>
+      <c r="P23">
+        <v>0.4091198696200947</v>
+      </c>
+      <c r="Q23">
+        <v>1147.18329059049</v>
+      </c>
+      <c r="R23">
+        <v>10324.64961531441</v>
+      </c>
+      <c r="S23">
+        <v>0.1312637035061741</v>
+      </c>
+      <c r="T23">
+        <v>0.1423191490712588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>89.9799964813195</v>
-      </c>
-      <c r="H19">
-        <v>89.9799964813195</v>
-      </c>
-      <c r="I19">
-        <v>0.3744293654643312</v>
-      </c>
-      <c r="J19">
-        <v>0.3744293654643312</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.752647431851063</v>
-      </c>
-      <c r="N19">
-        <v>0.752647431851063</v>
-      </c>
-      <c r="O19">
-        <v>0.02595697750286922</v>
-      </c>
-      <c r="P19">
-        <v>0.02595697750286922</v>
-      </c>
-      <c r="Q19">
-        <v>67.72321326963281</v>
-      </c>
-      <c r="R19">
-        <v>67.72321326963281</v>
-      </c>
-      <c r="S19">
-        <v>0.009719054615771244</v>
-      </c>
-      <c r="T19">
-        <v>0.009719054615771244</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H24">
+        <v>284.79747</v>
+      </c>
+      <c r="I24">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J24">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.030276666666667</v>
+      </c>
+      <c r="N24">
+        <v>9.09083</v>
+      </c>
+      <c r="O24">
+        <v>0.09465220404058775</v>
+      </c>
+      <c r="P24">
+        <v>0.1025923347997507</v>
+      </c>
+      <c r="Q24">
+        <v>287.6717093555666</v>
+      </c>
+      <c r="R24">
+        <v>2589.0453842001</v>
+      </c>
+      <c r="S24">
+        <v>0.03291614711762995</v>
+      </c>
+      <c r="T24">
+        <v>0.03568844945979386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H25">
+        <v>284.79747</v>
+      </c>
+      <c r="I25">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J25">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8303465000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.660693</v>
+      </c>
+      <c r="O25">
+        <v>0.02593628733868785</v>
+      </c>
+      <c r="P25">
+        <v>0.01874134399780904</v>
+      </c>
+      <c r="Q25">
+        <v>78.826860807785</v>
+      </c>
+      <c r="R25">
+        <v>472.96116484671</v>
+      </c>
+      <c r="S25">
+        <v>0.009019574962663186</v>
+      </c>
+      <c r="T25">
+        <v>0.006519488121407335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.467038</v>
+      </c>
+      <c r="I26">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J26">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.603020000000001</v>
+      </c>
+      <c r="N26">
+        <v>13.20604</v>
+      </c>
+      <c r="O26">
+        <v>0.2062486251499858</v>
+      </c>
+      <c r="P26">
+        <v>0.1490335290681818</v>
+      </c>
+      <c r="Q26">
+        <v>3.228960418253334</v>
+      </c>
+      <c r="R26">
+        <v>19.37376250952</v>
+      </c>
+      <c r="S26">
+        <v>0.0003694660708984104</v>
+      </c>
+      <c r="T26">
+        <v>0.0002670557837210998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.467038</v>
+      </c>
+      <c r="I27">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J27">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.889555</v>
+      </c>
+      <c r="N27">
+        <v>8.668665000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.09025669255057035</v>
+      </c>
+      <c r="P27">
+        <v>0.0978280951185844</v>
+      </c>
+      <c r="Q27">
+        <v>1.41302899603</v>
+      </c>
+      <c r="R27">
+        <v>12.71726096427</v>
+      </c>
+      <c r="S27">
+        <v>0.0001616824623422095</v>
+      </c>
+      <c r="T27">
+        <v>0.000175299872285005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.467038</v>
+      </c>
+      <c r="I28">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J28">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>6.577456666666667</v>
+      </c>
+      <c r="N28">
+        <v>19.73237</v>
+      </c>
+      <c r="O28">
+        <v>0.2054501416751135</v>
+      </c>
+      <c r="P28">
+        <v>0.2226848273955795</v>
+      </c>
+      <c r="Q28">
+        <v>3.216459624451111</v>
+      </c>
+      <c r="R28">
+        <v>28.94813662006</v>
+      </c>
+      <c r="S28">
+        <v>0.0003680356974744721</v>
+      </c>
+      <c r="T28">
+        <v>0.0003990328315698512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.467038</v>
+      </c>
+      <c r="I29">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J29">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>12.084201</v>
+      </c>
+      <c r="N29">
+        <v>36.252603</v>
+      </c>
+      <c r="O29">
+        <v>0.377456049245055</v>
+      </c>
+      <c r="P29">
+        <v>0.4091198696200947</v>
+      </c>
+      <c r="Q29">
+        <v>5.909327355546001</v>
+      </c>
+      <c r="R29">
+        <v>53.183946199914</v>
+      </c>
+      <c r="S29">
+        <v>0.0006761606451921457</v>
+      </c>
+      <c r="T29">
+        <v>0.0007331090399616308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.467038</v>
+      </c>
+      <c r="I30">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J30">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.030276666666667</v>
+      </c>
+      <c r="N30">
+        <v>9.09083</v>
+      </c>
+      <c r="O30">
+        <v>0.09465220404058775</v>
+      </c>
+      <c r="P30">
+        <v>0.1025923347997507</v>
+      </c>
+      <c r="Q30">
+        <v>1.481843673504445</v>
+      </c>
+      <c r="R30">
+        <v>13.33659306154</v>
+      </c>
+      <c r="S30">
+        <v>0.0001695564171800881</v>
+      </c>
+      <c r="T30">
+        <v>0.0001838369965807529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.467038</v>
+      </c>
+      <c r="I31">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J31">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.8303465000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.660693</v>
+      </c>
+      <c r="O31">
+        <v>0.02593628733868785</v>
+      </c>
+      <c r="P31">
+        <v>0.01874134399780904</v>
+      </c>
+      <c r="Q31">
+        <v>0.4060499562223334</v>
+      </c>
+      <c r="R31">
+        <v>2.436299737334001</v>
+      </c>
+      <c r="S31">
+        <v>4.646129480741341E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.358294164148711E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.0282255</v>
+      </c>
+      <c r="H32">
+        <v>0.056451</v>
+      </c>
+      <c r="I32">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J32">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.603020000000001</v>
+      </c>
+      <c r="N32">
+        <v>13.20604</v>
+      </c>
+      <c r="O32">
+        <v>0.2062486251499858</v>
+      </c>
+      <c r="P32">
+        <v>0.1490335290681818</v>
+      </c>
+      <c r="Q32">
+        <v>0.18637354101</v>
+      </c>
+      <c r="R32">
+        <v>0.7454941640400001</v>
+      </c>
+      <c r="S32">
+        <v>2.132534655027971E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.027619328663593E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.0282255</v>
+      </c>
+      <c r="H33">
+        <v>0.056451</v>
+      </c>
+      <c r="I33">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J33">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.889555</v>
+      </c>
+      <c r="N33">
+        <v>8.668665000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.09025669255057035</v>
+      </c>
+      <c r="P33">
+        <v>0.0978280951185844</v>
+      </c>
+      <c r="Q33">
+        <v>0.0815591346525</v>
+      </c>
+      <c r="R33">
+        <v>0.4893548079150001</v>
+      </c>
+      <c r="S33">
+        <v>9.332208860656712E-06</v>
+      </c>
+      <c r="T33">
+        <v>6.745464732584173E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.0282255</v>
+      </c>
+      <c r="H34">
+        <v>0.056451</v>
+      </c>
+      <c r="I34">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J34">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>6.577456666666667</v>
+      </c>
+      <c r="N34">
+        <v>19.73237</v>
+      </c>
+      <c r="O34">
+        <v>0.2054501416751135</v>
+      </c>
+      <c r="P34">
+        <v>0.2226848273955795</v>
+      </c>
+      <c r="Q34">
+        <v>0.185652003145</v>
+      </c>
+      <c r="R34">
+        <v>1.11391201887</v>
+      </c>
+      <c r="S34">
+        <v>2.124278630628323E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.535461411016598E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.0282255</v>
+      </c>
+      <c r="H35">
+        <v>0.056451</v>
+      </c>
+      <c r="I35">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J35">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12.084201</v>
+      </c>
+      <c r="N35">
+        <v>36.252603</v>
+      </c>
+      <c r="O35">
+        <v>0.377456049245055</v>
+      </c>
+      <c r="P35">
+        <v>0.4091198696200947</v>
+      </c>
+      <c r="Q35">
+        <v>0.3410826153255</v>
+      </c>
+      <c r="R35">
+        <v>2.046495691953</v>
+      </c>
+      <c r="S35">
+        <v>3.902756225306551E-05</v>
+      </c>
+      <c r="T35">
+        <v>2.820972491160694E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.0282255</v>
+      </c>
+      <c r="H36">
+        <v>0.056451</v>
+      </c>
+      <c r="I36">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J36">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.030276666666667</v>
+      </c>
+      <c r="N36">
+        <v>9.09083</v>
+      </c>
+      <c r="O36">
+        <v>0.09465220404058775</v>
+      </c>
+      <c r="P36">
+        <v>0.1025923347997507</v>
+      </c>
+      <c r="Q36">
+        <v>0.085531074055</v>
+      </c>
+      <c r="R36">
+        <v>0.51318644433</v>
+      </c>
+      <c r="S36">
+        <v>9.786688524325701E-06</v>
+      </c>
+      <c r="T36">
+        <v>7.073969654487533E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.0282255</v>
+      </c>
+      <c r="H37">
+        <v>0.056451</v>
+      </c>
+      <c r="I37">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J37">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.8303465000000001</v>
+      </c>
+      <c r="N37">
+        <v>1.660693</v>
+      </c>
+      <c r="O37">
+        <v>0.02593628733868785</v>
+      </c>
+      <c r="P37">
+        <v>0.01874134399780904</v>
+      </c>
+      <c r="Q37">
+        <v>0.02343694513575</v>
+      </c>
+      <c r="R37">
+        <v>0.09374778054300001</v>
+      </c>
+      <c r="S37">
+        <v>2.681716376644601E-06</v>
+      </c>
+      <c r="T37">
+        <v>1.292257350255132E-06</v>
       </c>
     </row>
   </sheetData>
